--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2475.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2475.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172259284887659</v>
+        <v>1.561187267303467</v>
       </c>
       <c r="B1">
-        <v>2.800157909116637</v>
+        <v>2.259199142456055</v>
       </c>
       <c r="C1">
-        <v>5.875475520990035</v>
+        <v>3.374518156051636</v>
       </c>
       <c r="D1">
-        <v>3.756137595676263</v>
+        <v>2.442772626876831</v>
       </c>
       <c r="E1">
-        <v>0.9661563761220552</v>
+        <v>0.7161096930503845</v>
       </c>
     </row>
   </sheetData>
